--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barto\Desktop\bo2\Badania_Operacyjne_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3D4989-CFFE-4DB3-B937-FCF1E5C8351F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9FA66C-3B12-474B-A24D-0A1F4257E395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2738751F-6025-4E16-9F9D-2B66A9C3705A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>city</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>Warszawa</t>
+  </si>
+  <si>
+    <t>Gdynia</t>
+  </si>
+  <si>
+    <t>Szczecin</t>
+  </si>
+  <si>
+    <t>Poznań</t>
+  </si>
+  <si>
+    <t>Zakopane</t>
+  </si>
+  <si>
+    <t>12000,30000,25000</t>
   </si>
 </sst>
 </file>
@@ -412,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE03D20-2F57-48FF-A93D-1BB42275B149}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +439,7 @@
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -461,8 +476,8 @@
       <c r="D2" s="1">
         <v>44748</v>
       </c>
-      <c r="E2">
-        <v>12000</v>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="2">
         <v>5.34</v>
@@ -489,6 +504,111 @@
         <v>7.23</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A8" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44748</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44752</v>
+      </c>
+      <c r="E4">
+        <v>48000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44749</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44754</v>
+      </c>
+      <c r="E5">
+        <v>66000</v>
+      </c>
+      <c r="F5">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44750</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44756</v>
+      </c>
+      <c r="E6">
+        <v>84000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44751</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44758</v>
+      </c>
+      <c r="E7">
+        <v>102000</v>
+      </c>
+      <c r="F7">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44746</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44748</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barto\Desktop\bo2\Badania_Operacyjne_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9FA66C-3B12-474B-A24D-0A1F4257E395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D043BE7-C921-40DD-A2C4-41EC410BDF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2738751F-6025-4E16-9F9D-2B66A9C3705A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>city</t>
   </si>
@@ -73,16 +73,53 @@
   </si>
   <si>
     <t>12000,30000,25000</t>
+  </si>
+  <si>
+    <t>parking_cost</t>
+  </si>
+  <si>
+    <t>300,200,100</t>
+  </si>
+  <si>
+    <t>12000,30000</t>
+  </si>
+  <si>
+    <t>10000,11000,9000</t>
+  </si>
+  <si>
+    <t>8000,10000,13000</t>
+  </si>
+  <si>
+    <t>9000,8000,7000</t>
+  </si>
+  <si>
+    <t>13000,12500,10000</t>
+  </si>
+  <si>
+    <t>7000,9000,10000</t>
+  </si>
+  <si>
+    <t>200,100</t>
+  </si>
+  <si>
+    <t>250,200,100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -109,10 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -427,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE03D20-2F57-48FF-A93D-1BB42275B149}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,9 +479,10 @@
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -462,8 +501,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -476,14 +518,17 @@
       <c r="D2" s="1">
         <v>44748</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>5.34</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -495,16 +540,19 @@
         <v>44747</v>
       </c>
       <c r="D3" s="1">
-        <v>44750</v>
-      </c>
-      <c r="E3">
-        <v>30000</v>
-      </c>
-      <c r="F3">
-        <v>7.23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44749</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A8" si="0">A3+1</f>
         <v>2</v>
@@ -516,16 +564,19 @@
         <v>44748</v>
       </c>
       <c r="D4" s="1">
-        <v>44752</v>
-      </c>
-      <c r="E4">
-        <v>48000</v>
+        <v>44750</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="2">
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -537,16 +588,19 @@
         <v>44749</v>
       </c>
       <c r="D5" s="1">
-        <v>44754</v>
-      </c>
-      <c r="E5">
-        <v>66000</v>
-      </c>
-      <c r="F5">
-        <v>11.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44751</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -558,16 +612,19 @@
         <v>44750</v>
       </c>
       <c r="D6" s="1">
-        <v>44756</v>
-      </c>
-      <c r="E6">
-        <v>84000</v>
+        <v>44752</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="2">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -579,16 +636,19 @@
         <v>44751</v>
       </c>
       <c r="D7" s="1">
-        <v>44758</v>
-      </c>
-      <c r="E7">
-        <v>102000</v>
-      </c>
-      <c r="F7">
-        <v>14.79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44753</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5.12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -597,19 +657,26 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>44746</v>
+        <v>44752</v>
       </c>
       <c r="D8" s="1">
-        <v>44748</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
+        <v>44753</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F8" s="2">
-        <v>5.34</v>
+        <v>5.05</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E8" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/data/example_data.xlsx
+++ b/data/example_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barto\Desktop\bo2\Badania_Operacyjne_2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dawid\Desktop\Badania_Operacyjne_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D043BE7-C921-40DD-A2C4-41EC410BDF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F404D6-DC3D-49DD-9B7A-13B23B92C8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2738751F-6025-4E16-9F9D-2B66A9C3705A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{2738751F-6025-4E16-9F9D-2B66A9C3705A}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>city</t>
   </si>
@@ -103,6 +103,129 @@
   </si>
   <si>
     <t>250,200,100</t>
+  </si>
+  <si>
+    <t>Łódź</t>
+  </si>
+  <si>
+    <t>Bydgoszcz</t>
+  </si>
+  <si>
+    <t>Toruń</t>
+  </si>
+  <si>
+    <t>Gdańsk</t>
+  </si>
+  <si>
+    <t>Lublin</t>
+  </si>
+  <si>
+    <t>Katowice</t>
+  </si>
+  <si>
+    <t>Kielce</t>
+  </si>
+  <si>
+    <t>Opole</t>
+  </si>
+  <si>
+    <t>Zielona Góra</t>
+  </si>
+  <si>
+    <t>Lubin</t>
+  </si>
+  <si>
+    <t>Suwałki</t>
+  </si>
+  <si>
+    <t>Piła</t>
+  </si>
+  <si>
+    <t>Słupsk</t>
+  </si>
+  <si>
+    <t>Rzeszów</t>
+  </si>
+  <si>
+    <t>15000,20000</t>
+  </si>
+  <si>
+    <t>10000,8000,12000</t>
+  </si>
+  <si>
+    <t>3000,7000</t>
+  </si>
+  <si>
+    <t>7000,4000,3000</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>12000,13000,15000,20000,30000</t>
+  </si>
+  <si>
+    <t>1000,3000,8000,7000</t>
+  </si>
+  <si>
+    <t>10000,15000</t>
+  </si>
+  <si>
+    <t>6000,7000</t>
+  </si>
+  <si>
+    <t>6000,7000,6500,6900</t>
+  </si>
+  <si>
+    <t>13000,12000,8000</t>
+  </si>
+  <si>
+    <t>5000,4000,6000</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>500,300</t>
+  </si>
+  <si>
+    <t>300,250,200</t>
+  </si>
+  <si>
+    <t>300,200</t>
+  </si>
+  <si>
+    <t>400,350,250</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>500,300,250,200,150</t>
+  </si>
+  <si>
+    <t>500,300,250,200</t>
+  </si>
+  <si>
+    <t>600,300</t>
+  </si>
+  <si>
+    <t>250,200</t>
+  </si>
+  <si>
+    <t>300,250,200,200</t>
+  </si>
+  <si>
+    <t>420,385,200</t>
+  </si>
+  <si>
+    <t>370,300,250</t>
+  </si>
+  <si>
+    <t>350</t>
   </si>
 </sst>
 </file>
@@ -465,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE03D20-2F57-48FF-A93D-1BB42275B149}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +677,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A8" si="0">A3+1</f>
+        <f t="shared" ref="A4:A22" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -670,6 +793,356 @@
       </c>
       <c r="G8" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44753</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44754</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <f ca="1">RANDBETWEEN(450,550) / 100</f>
+        <v>4.92</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44757</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44759</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F22" ca="1" si="1">RANDBETWEEN(450,550) / 100</f>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44755</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44756</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44752</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44754</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.09</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44754</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44754</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44750</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44754</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44746</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44749</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.54</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44747</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44748</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44746</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44747</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.72</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44747</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44750</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.82</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44750</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44752</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.74</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44752</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44754</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.19</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44754</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44754</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.72</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44755</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44755</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.55</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
